--- a/Pull Request Here/Houseplants Remastered - 2906302219/Houseplants Remastered - 2906302219.xlsx
+++ b/Pull Request Here/Houseplants Remastered - 2906302219/Houseplants Remastered - 2906302219.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\Houseplants Remastered - 2906302219\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDAD3BD-404C-406C-A8E7-445B7F0B6CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EEC8D5-6E26-419F-9430-5C3E76A19F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="-240" windowWidth="17880" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,10 +337,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>악마의 덩굴(Devil's Ivy) 또는 골든 포토스(Golden Pothos)이라고도 불립니다. 자연적으로 자라면 엄청난 번식력 때문에 기둥을 덮은 광경을 마주하게 되며, 어두운 음지에서도 녹색을 비추도록 잘 자라는 것으로 유명하여 이런 이름을 얻었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>평화 백합(Peace Lily)이라고도 불립니다. 아름다운 흰색 꽃을 가졌지만, 다른 백합과 달리 도깨비 방망이처럼 생겼습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -426,6 +422,10 @@
   </si>
   <si>
     <t>발리시아 키아네아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마의 덩굴(Devil's Ivy) 또는 골든 포토스(Golden Pothos)라고도 불립니다. 자연적으로 자라면 엄청난 번식력 때문에 기둥을 덮은 광경을 마주하게 되며, 어두운 음지에서도 녹색을 비추도록 잘 자라는 것으로 유명하여 이런 이름을 얻었습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +879,7 @@
         <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -981,7 +981,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
         <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1165,10 +1165,10 @@
         <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1182,10 +1182,10 @@
         <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1199,10 +1199,10 @@
         <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1216,10 +1216,10 @@
         <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1233,10 +1233,10 @@
         <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1267,10 +1267,10 @@
         <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,10 +1284,10 @@
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
